--- a/output/1Y_P100_KFSDIV.xlsx
+++ b/output/1Y_P100_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>10.462</v>
       </c>
       <c r="C2" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D2" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>955.8402</v>
+        <v>953.9254</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10.5775</v>
       </c>
       <c r="C3" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D3" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E3" s="1">
-        <v>955.8402</v>
+        <v>953.9254</v>
       </c>
       <c r="F3" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="H3" s="1">
-        <v>10110.3995</v>
+        <v>10069.9227</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10110.3995</v>
+        <v>10069.9227</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.011</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>10.7066</v>
       </c>
       <c r="C4" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D4" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E4" s="1">
-        <v>1901.2432</v>
+        <v>1897.4373</v>
       </c>
       <c r="F4" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="H4" s="1">
-        <v>20355.85</v>
+        <v>20274.4975</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20355.85</v>
+        <v>20274.4975</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.5194</v>
+        <v>10.5405</v>
       </c>
       <c r="M4" s="1">
         <v>0.2</v>
       </c>
       <c r="N4" s="1">
-        <v>172.0512</v>
+        <v>171.7066</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9827.9488</v>
+        <v>-9828.2934</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0122</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>11.1511</v>
       </c>
       <c r="C5" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D5" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E5" s="1">
-        <v>2835.2465</v>
+        <v>2829.5688</v>
       </c>
       <c r="F5" s="1">
-        <v>898.4869</v>
+        <v>896.6822</v>
       </c>
       <c r="H5" s="1">
-        <v>31616.1171</v>
+        <v>31489.7058</v>
       </c>
       <c r="I5" s="1">
-        <v>172.0512</v>
+        <v>171.7066</v>
       </c>
       <c r="J5" s="1">
-        <v>31788.1683</v>
+        <v>31661.4124</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.5811</v>
+        <v>10.6023</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10019.1168</v>
+        <v>-10019.0785</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0472</v>
+        <v>0.0458</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>11.5294</v>
       </c>
       <c r="C6" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D6" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E6" s="1">
-        <v>3733.7333</v>
+        <v>3726.251</v>
       </c>
       <c r="F6" s="1">
-        <v>868.9983999999999</v>
+        <v>867.265</v>
       </c>
       <c r="H6" s="1">
-        <v>43047.7052</v>
+        <v>42875.3624</v>
       </c>
       <c r="I6" s="1">
-        <v>152.9344</v>
+        <v>152.6281</v>
       </c>
       <c r="J6" s="1">
-        <v>43200.6397</v>
+        <v>43027.9904</v>
       </c>
       <c r="K6" s="1">
-        <v>40019.1168</v>
+        <v>40019.0785</v>
       </c>
       <c r="L6" s="1">
-        <v>10.7183</v>
+        <v>10.7398</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10019.1168</v>
+        <v>-10019.0785</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0338</v>
+        <v>0.0328</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>10.9136</v>
       </c>
       <c r="C7" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D7" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E7" s="1">
-        <v>4602.7317</v>
+        <v>4593.516</v>
       </c>
       <c r="F7" s="1">
-        <v>918.0396</v>
+        <v>916.1976</v>
       </c>
       <c r="H7" s="1">
-        <v>50232.3729</v>
+        <v>50031.6577</v>
       </c>
       <c r="I7" s="1">
-        <v>133.8176</v>
+        <v>133.5496</v>
       </c>
       <c r="J7" s="1">
-        <v>50366.1906</v>
+        <v>50165.2072</v>
       </c>
       <c r="K7" s="1">
-        <v>50038.2336</v>
+        <v>50038.157</v>
       </c>
       <c r="L7" s="1">
-        <v>10.8714</v>
+        <v>10.8932</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1680.18</v>
+        <v>1676.813</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8338.936799999999</v>
+        <v>-8342.2655</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0533</v>
+        <v>-0.054</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>11.2587</v>
       </c>
       <c r="C8" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D8" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E8" s="1">
-        <v>5520.7713</v>
+        <v>5509.7136</v>
       </c>
       <c r="F8" s="1">
-        <v>914.7723</v>
+        <v>912.8866</v>
       </c>
       <c r="H8" s="1">
-        <v>62156.1558</v>
+        <v>61908.2437</v>
       </c>
       <c r="I8" s="1">
-        <v>1794.8808</v>
+        <v>1791.284</v>
       </c>
       <c r="J8" s="1">
-        <v>63951.0367</v>
+        <v>63699.5277</v>
       </c>
       <c r="K8" s="1">
-        <v>60057.3504</v>
+        <v>60057.2355</v>
       </c>
       <c r="L8" s="1">
-        <v>10.8784</v>
+        <v>10.9002</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10299.1468</v>
+        <v>-10298.5473</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0594</v>
+        <v>0.0587</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>11.6434</v>
       </c>
       <c r="C9" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D9" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E9" s="1">
-        <v>6435.5436</v>
+        <v>6422.6002</v>
       </c>
       <c r="F9" s="1">
-        <v>884.5481</v>
+        <v>882.7301</v>
       </c>
       <c r="H9" s="1">
-        <v>74931.60830000001</v>
+        <v>74631.25599999999</v>
       </c>
       <c r="I9" s="1">
-        <v>1495.734</v>
+        <v>1492.7367</v>
       </c>
       <c r="J9" s="1">
-        <v>76427.34239999999</v>
+        <v>76123.9927</v>
       </c>
       <c r="K9" s="1">
-        <v>70356.4972</v>
+        <v>70355.78290000001</v>
       </c>
       <c r="L9" s="1">
-        <v>10.9325</v>
+        <v>10.9544</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10299.1468</v>
+        <v>-10298.5473</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0335</v>
+        <v>0.0329</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>11.3141</v>
       </c>
       <c r="C10" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D10" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E10" s="1">
-        <v>7320.0917</v>
+        <v>7305.3303</v>
       </c>
       <c r="F10" s="1">
-        <v>910.2931</v>
+        <v>908.4175</v>
       </c>
       <c r="H10" s="1">
-        <v>82820.249</v>
+        <v>82488.1366</v>
       </c>
       <c r="I10" s="1">
-        <v>1196.5872</v>
+        <v>1194.1893</v>
       </c>
       <c r="J10" s="1">
-        <v>84016.83620000001</v>
+        <v>83682.326</v>
       </c>
       <c r="K10" s="1">
-        <v>80655.644</v>
+        <v>80654.3302</v>
       </c>
       <c r="L10" s="1">
-        <v>11.0184</v>
+        <v>11.0405</v>
       </c>
       <c r="M10" s="1">
         <v>0.4</v>
       </c>
       <c r="N10" s="1">
-        <v>2316.7957</v>
+        <v>2312.1361</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7982.3511</v>
+        <v>-7986.4113</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0279</v>
+        <v>-0.0284</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>11.003</v>
       </c>
       <c r="C11" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D11" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E11" s="1">
-        <v>8230.384700000001</v>
+        <v>8213.7477</v>
       </c>
       <c r="F11" s="1">
-        <v>1006.2176</v>
+        <v>1004.0053</v>
       </c>
       <c r="H11" s="1">
-        <v>90558.9231</v>
+        <v>90195.164</v>
       </c>
       <c r="I11" s="1">
-        <v>3214.2361</v>
+        <v>3207.7781</v>
       </c>
       <c r="J11" s="1">
-        <v>93773.15919999999</v>
+        <v>93402.942</v>
       </c>
       <c r="K11" s="1">
-        <v>90954.7908</v>
+        <v>90952.8775</v>
       </c>
       <c r="L11" s="1">
-        <v>11.0511</v>
+        <v>11.0732</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11071.412</v>
+        <v>-11069.2594</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0026</v>
+        <v>-0.003</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>11.1102</v>
       </c>
       <c r="C12" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D12" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E12" s="1">
-        <v>9236.6023</v>
+        <v>9217.7531</v>
       </c>
       <c r="F12" s="1">
-        <v>996.4998000000001</v>
+        <v>994.3193</v>
       </c>
       <c r="H12" s="1">
-        <v>102620.4989</v>
+        <v>102206.4463</v>
       </c>
       <c r="I12" s="1">
-        <v>2142.8241</v>
+        <v>2138.5187</v>
       </c>
       <c r="J12" s="1">
-        <v>104763.323</v>
+        <v>104344.965</v>
       </c>
       <c r="K12" s="1">
-        <v>102026.2029</v>
+        <v>102022.1369</v>
       </c>
       <c r="L12" s="1">
-        <v>11.0459</v>
+        <v>11.068</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11071.412</v>
+        <v>-11069.2594</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0095</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>10.623</v>
       </c>
       <c r="C13" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D13" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E13" s="1">
-        <v>10233.1021</v>
+        <v>10212.0724</v>
       </c>
       <c r="F13" s="1">
-        <v>1042.2114</v>
+        <v>1039.9237</v>
       </c>
       <c r="H13" s="1">
-        <v>108706.2439</v>
+        <v>108265.3276</v>
       </c>
       <c r="I13" s="1">
-        <v>1071.412</v>
+        <v>1069.2594</v>
       </c>
       <c r="J13" s="1">
-        <v>109777.656</v>
+        <v>109334.587</v>
       </c>
       <c r="K13" s="1">
-        <v>113097.6149</v>
+        <v>113091.3962</v>
       </c>
       <c r="L13" s="1">
-        <v>11.0521</v>
+        <v>11.0743</v>
       </c>
       <c r="M13" s="1">
         <v>0.1</v>
       </c>
       <c r="N13" s="1">
-        <v>831.2942</v>
+        <v>829.5978</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10240.1178</v>
+        <v>-10239.6616</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0434</v>
+        <v>-0.0438</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>9.977</v>
       </c>
       <c r="C14" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E14" s="1">
-        <v>11275.3136</v>
+        <v>11251.996</v>
       </c>
       <c r="F14" s="1">
-        <v>-11275.3136</v>
+        <v>-11251.996</v>
       </c>
       <c r="H14" s="1">
-        <v>112493.8034</v>
+        <v>112036.1244</v>
       </c>
       <c r="I14" s="1">
-        <v>831.2942</v>
+        <v>829.5978</v>
       </c>
       <c r="J14" s="1">
-        <v>113325.0976</v>
+        <v>112865.7222</v>
       </c>
       <c r="K14" s="1">
-        <v>124169.0269</v>
+        <v>124160.6556</v>
       </c>
       <c r="L14" s="1">
-        <v>11.0125</v>
+        <v>11.0345</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112493.8034</v>
+        <v>112036.1244</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0539</v>
+        <v>-0.0542</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>10.462</v>
       </c>
       <c r="C2" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D2" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>955.8402</v>
+        <v>953.9254</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>10.5775</v>
       </c>
       <c r="C3" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D3" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E3" s="1">
-        <v>955.8402</v>
+        <v>953.9254</v>
       </c>
       <c r="F3" s="1">
-        <v>934.9657999999999</v>
+        <v>940.6778</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10110.3995</v>
+        <v>10069.9227</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10110.3995</v>
+        <v>10069.9227</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9889.6005</v>
+        <v>-9969.962</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.011</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>10.7066</v>
       </c>
       <c r="C4" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D4" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E4" s="1">
-        <v>1890.806</v>
+        <v>1894.6032</v>
       </c>
       <c r="F4" s="1">
-        <v>911.204</v>
+        <v>913.0185</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20244.103</v>
+        <v>20244.2144</v>
       </c>
       <c r="I4" s="1">
-        <v>110.3995</v>
+        <v>30.038</v>
       </c>
       <c r="J4" s="1">
-        <v>20354.5026</v>
+        <v>20274.2523</v>
       </c>
       <c r="K4" s="1">
-        <v>19889.6005</v>
+        <v>19969.962</v>
       </c>
       <c r="L4" s="1">
-        <v>10.5191</v>
+        <v>10.5404</v>
       </c>
       <c r="M4" s="1">
         <v>0.2</v>
       </c>
       <c r="N4" s="1">
-        <v>172.0512</v>
+        <v>171.7066</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9583.8457</v>
+        <v>-9623.247600000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0121</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>11.1511</v>
       </c>
       <c r="C5" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D5" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E5" s="1">
-        <v>2802.01</v>
+        <v>2807.6218</v>
       </c>
       <c r="F5" s="1">
-        <v>785.0801</v>
+        <v>786.6562</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>31245.4934</v>
+        <v>31245.461</v>
       </c>
       <c r="I5" s="1">
-        <v>526.5538</v>
+        <v>406.7904</v>
       </c>
       <c r="J5" s="1">
-        <v>31772.0473</v>
+        <v>31652.2514</v>
       </c>
       <c r="K5" s="1">
-        <v>29645.4974</v>
+        <v>29764.9161</v>
       </c>
       <c r="L5" s="1">
-        <v>10.5801</v>
+        <v>10.6015</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8754.506600000001</v>
+        <v>-8789.702499999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0467</v>
+        <v>0.0455</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>11.5294</v>
       </c>
       <c r="C6" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D6" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E6" s="1">
-        <v>3587.0901</v>
+        <v>3594.2779</v>
       </c>
       <c r="F6" s="1">
-        <v>749.6491</v>
+        <v>751.1676</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>41356.9962</v>
+        <v>41356.8399</v>
       </c>
       <c r="I6" s="1">
-        <v>1772.0473</v>
+        <v>1617.0879</v>
       </c>
       <c r="J6" s="1">
-        <v>43129.0434</v>
+        <v>42973.9278</v>
       </c>
       <c r="K6" s="1">
-        <v>38400.004</v>
+        <v>38554.6187</v>
       </c>
       <c r="L6" s="1">
-        <v>10.7051</v>
+        <v>10.7267</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8643.078799999999</v>
+        <v>-8677.864</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0325</v>
+        <v>0.0317</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>10.9136</v>
       </c>
       <c r="C7" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D7" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E7" s="1">
-        <v>4336.7391</v>
+        <v>4345.4455</v>
       </c>
       <c r="F7" s="1">
-        <v>1160.9885</v>
+        <v>1163.2858</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>47329.4361</v>
+        <v>47329.7237</v>
       </c>
       <c r="I7" s="1">
-        <v>3128.9685</v>
+        <v>2939.2239</v>
       </c>
       <c r="J7" s="1">
-        <v>50458.4045</v>
+        <v>50268.9476</v>
       </c>
       <c r="K7" s="1">
-        <v>47043.0828</v>
+        <v>47232.4827</v>
       </c>
       <c r="L7" s="1">
-        <v>10.8476</v>
+        <v>10.8694</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1614.1905</v>
+        <v>1617.4251</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-11056.3734</v>
+        <v>-11103.6868</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0503</v>
+        <v>-0.0511</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>11.2587</v>
       </c>
       <c r="C8" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D8" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E8" s="1">
-        <v>5497.7276</v>
+        <v>5508.7313</v>
       </c>
       <c r="F8" s="1">
-        <v>719.7417</v>
+        <v>721.1328</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>61896.716</v>
+        <v>61897.2071</v>
       </c>
       <c r="I8" s="1">
-        <v>2072.595</v>
+        <v>1835.5371</v>
       </c>
       <c r="J8" s="1">
-        <v>63969.3111</v>
+        <v>63732.7441</v>
       </c>
       <c r="K8" s="1">
-        <v>59713.6467</v>
+        <v>59953.5946</v>
       </c>
       <c r="L8" s="1">
-        <v>10.8615</v>
+        <v>10.8834</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8103.356</v>
+        <v>-8135.316</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0581</v>
+        <v>0.0575</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>11.6434</v>
       </c>
       <c r="C9" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D9" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E9" s="1">
-        <v>6217.4693</v>
+        <v>6229.8642</v>
       </c>
       <c r="F9" s="1">
-        <v>653.376</v>
+        <v>654.7581</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>72392.4822</v>
+        <v>72391.6449</v>
       </c>
       <c r="I9" s="1">
-        <v>3969.2391</v>
+        <v>3700.221</v>
       </c>
       <c r="J9" s="1">
-        <v>76361.7213</v>
+        <v>76091.8659</v>
       </c>
       <c r="K9" s="1">
-        <v>67817.0027</v>
+        <v>68088.9106</v>
       </c>
       <c r="L9" s="1">
-        <v>10.9075</v>
+        <v>10.9294</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7607.5178</v>
+        <v>-7638.8669</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0323</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>11.3141</v>
       </c>
       <c r="C10" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D10" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E10" s="1">
-        <v>6870.8453</v>
+        <v>6884.6223</v>
       </c>
       <c r="F10" s="1">
-        <v>1083.8307</v>
+        <v>1085.975</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>77737.43060000001</v>
+        <v>77737.71309999999</v>
       </c>
       <c r="I10" s="1">
-        <v>6361.7213</v>
+        <v>6061.3542</v>
       </c>
       <c r="J10" s="1">
-        <v>84099.1519</v>
+        <v>83799.0673</v>
       </c>
       <c r="K10" s="1">
-        <v>75424.5205</v>
+        <v>75727.7775</v>
       </c>
       <c r="L10" s="1">
-        <v>10.9775</v>
+        <v>10.9996</v>
       </c>
       <c r="M10" s="1">
         <v>0.4</v>
       </c>
       <c r="N10" s="1">
-        <v>2238.289</v>
+        <v>2242.7511</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10024.2804</v>
+        <v>-10068.7305</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0262</v>
+        <v>-0.0266</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>11.003</v>
       </c>
       <c r="C11" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D11" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E11" s="1">
-        <v>7954.676</v>
+        <v>7970.5974</v>
       </c>
       <c r="F11" s="1">
-        <v>1133.7544</v>
+        <v>1136.0414</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>87525.3003</v>
+        <v>87525.1295</v>
       </c>
       <c r="I11" s="1">
-        <v>6337.4409</v>
+        <v>5992.6237</v>
       </c>
       <c r="J11" s="1">
-        <v>93862.7412</v>
+        <v>93517.75320000001</v>
       </c>
       <c r="K11" s="1">
-        <v>87687.0898</v>
+        <v>88039.25900000001</v>
       </c>
       <c r="L11" s="1">
-        <v>11.0233</v>
+        <v>11.0455</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-12474.6997</v>
+        <v>-12524.9699</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0025</v>
+        <v>-0.003</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>11.1102</v>
       </c>
       <c r="C12" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D12" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E12" s="1">
-        <v>9088.430399999999</v>
+        <v>9106.6387</v>
       </c>
       <c r="F12" s="1">
-        <v>812.3814</v>
+        <v>813.9962</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>100974.2797</v>
+        <v>100974.4103</v>
       </c>
       <c r="I12" s="1">
-        <v>3862.7412</v>
+        <v>3467.6538</v>
       </c>
       <c r="J12" s="1">
-        <v>104837.0209</v>
+        <v>104442.0642</v>
       </c>
       <c r="K12" s="1">
-        <v>100161.7895</v>
+        <v>100564.2289</v>
       </c>
       <c r="L12" s="1">
-        <v>11.0208</v>
+        <v>11.043</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9025.8015</v>
+        <v>-9061.8125</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0094</v>
+        <v>0.0089</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>10.623</v>
       </c>
       <c r="C13" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D13" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E13" s="1">
-        <v>9900.811900000001</v>
+        <v>9920.634899999999</v>
       </c>
       <c r="F13" s="1">
-        <v>1395.4321</v>
+        <v>1353.3855</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>105176.3245</v>
+        <v>105175.5952</v>
       </c>
       <c r="I13" s="1">
-        <v>4836.9397</v>
+        <v>4405.8413</v>
       </c>
       <c r="J13" s="1">
-        <v>110013.2641</v>
+        <v>109581.4366</v>
       </c>
       <c r="K13" s="1">
-        <v>109187.591</v>
+        <v>109626.0414</v>
       </c>
       <c r="L13" s="1">
-        <v>11.0281</v>
+        <v>11.0503</v>
       </c>
       <c r="M13" s="1">
         <v>0.1</v>
       </c>
       <c r="N13" s="1">
-        <v>817.9587</v>
+        <v>819.5975</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-14005.7168</v>
+        <v>-13586.2438</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.042</v>
+        <v>-0.0425</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>9.977</v>
       </c>
       <c r="C14" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E14" s="1">
-        <v>11296.244</v>
+        <v>11274.0204</v>
       </c>
       <c r="F14" s="1">
-        <v>-11296.244</v>
+        <v>-11274.0204</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>112702.6264</v>
+        <v>112255.4214</v>
       </c>
       <c r="I14" s="1">
-        <v>831.2229</v>
+        <v>819.5975</v>
       </c>
       <c r="J14" s="1">
-        <v>113533.8492</v>
+        <v>113075.0189</v>
       </c>
       <c r="K14" s="1">
-        <v>124011.2666</v>
+        <v>124031.8827</v>
       </c>
       <c r="L14" s="1">
-        <v>10.9781</v>
+        <v>11.0016</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112702.6264</v>
+        <v>112255.4214</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.054</v>
+        <v>-0.0544</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>10.462</v>
       </c>
       <c r="C2" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D2" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>955.8402</v>
+        <v>953.9254</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>10.5775</v>
       </c>
       <c r="C3" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D3" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E3" s="1">
-        <v>955.8402</v>
+        <v>953.9254</v>
       </c>
       <c r="F3" s="1">
-        <v>939.6928</v>
+        <v>945.4143</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10110.3995</v>
+        <v>10069.9227</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10110.3995</v>
+        <v>10069.9227</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9939.6005</v>
+        <v>-10020.1628</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.011</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +2324,49 @@
         <v>10.7066</v>
       </c>
       <c r="C4" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D4" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E4" s="1">
-        <v>1895.533</v>
+        <v>1899.3397</v>
       </c>
       <c r="F4" s="1">
-        <v>920.5104</v>
+        <v>922.3434999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20294.7133</v>
+        <v>20294.8249</v>
       </c>
       <c r="I4" s="1">
-        <v>60.3995</v>
+        <v>-20.1628</v>
       </c>
       <c r="J4" s="1">
-        <v>20355.1128</v>
+        <v>20274.6621</v>
       </c>
       <c r="K4" s="1">
-        <v>19939.6005</v>
+        <v>20020.1628</v>
       </c>
       <c r="L4" s="1">
-        <v>10.5193</v>
+        <v>10.5406</v>
       </c>
       <c r="M4" s="1">
         <v>0.2</v>
       </c>
       <c r="N4" s="1">
-        <v>172.0512</v>
+        <v>171.7066</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9683.485500000001</v>
+        <v>-9723.2871</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0122</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>11.1511</v>
       </c>
       <c r="C5" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D5" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E5" s="1">
-        <v>2816.0434</v>
+        <v>2821.6833</v>
       </c>
       <c r="F5" s="1">
-        <v>798.0397</v>
+        <v>799.6417</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>31401.9813</v>
+        <v>31401.9487</v>
       </c>
       <c r="I5" s="1">
-        <v>376.9141</v>
+        <v>256.5501</v>
       </c>
       <c r="J5" s="1">
-        <v>31778.8954</v>
+        <v>31658.4988</v>
       </c>
       <c r="K5" s="1">
-        <v>29795.1372</v>
+        <v>29915.1565</v>
       </c>
       <c r="L5" s="1">
-        <v>10.5805</v>
+        <v>10.6019</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8899.02</v>
+        <v>-8934.7965</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0469</v>
+        <v>0.0457</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>11.5294</v>
       </c>
       <c r="C6" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D6" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E6" s="1">
-        <v>3614.083</v>
+        <v>3621.325</v>
       </c>
       <c r="F6" s="1">
-        <v>766.2409</v>
+        <v>767.7928000000001</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>41668.2089</v>
+        <v>41668.0514</v>
       </c>
       <c r="I6" s="1">
-        <v>1477.8941</v>
+        <v>1321.7536</v>
       </c>
       <c r="J6" s="1">
-        <v>43146.103</v>
+        <v>42989.805</v>
       </c>
       <c r="K6" s="1">
-        <v>38694.1571</v>
+        <v>38849.953</v>
       </c>
       <c r="L6" s="1">
-        <v>10.7065</v>
+        <v>10.7281</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8834.374</v>
+        <v>-8869.9269</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0327</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +2483,49 @@
         <v>10.9136</v>
       </c>
       <c r="C7" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D7" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E7" s="1">
-        <v>4380.3239</v>
+        <v>4389.1178</v>
       </c>
       <c r="F7" s="1">
-        <v>1158.5105</v>
+        <v>1138.6609</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>47805.1028</v>
+        <v>47805.3934</v>
       </c>
       <c r="I7" s="1">
-        <v>2643.5201</v>
+        <v>2451.8267</v>
       </c>
       <c r="J7" s="1">
-        <v>50448.6229</v>
+        <v>50257.2201</v>
       </c>
       <c r="K7" s="1">
-        <v>47528.5311</v>
+        <v>47719.8799</v>
       </c>
       <c r="L7" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1626.3374</v>
+        <v>1629.5962</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-11017.1827</v>
+        <v>-10822.2305</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0508</v>
+        <v>-0.0516</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>11.2587</v>
       </c>
       <c r="C8" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D8" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E8" s="1">
-        <v>5538.8344</v>
+        <v>5527.7787</v>
       </c>
       <c r="F8" s="1">
-        <v>772.6781</v>
+        <v>796.316</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>62359.5208</v>
+        <v>62111.2276</v>
       </c>
       <c r="I8" s="1">
-        <v>1626.3374</v>
+        <v>1629.5962</v>
       </c>
       <c r="J8" s="1">
-        <v>63985.8581</v>
+        <v>63740.8238</v>
       </c>
       <c r="K8" s="1">
-        <v>60172.0512</v>
+        <v>60171.7066</v>
       </c>
       <c r="L8" s="1">
-        <v>10.8637</v>
+        <v>10.8853</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8699.350399999999</v>
+        <v>-8983.4802</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0585</v>
+        <v>0.0578</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>11.6434</v>
       </c>
       <c r="C9" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D9" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E9" s="1">
-        <v>6311.5124</v>
+        <v>6324.0948</v>
       </c>
       <c r="F9" s="1">
-        <v>680.7826</v>
+        <v>682.2208000000001</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>73487.4639</v>
+        <v>73486.6139</v>
       </c>
       <c r="I9" s="1">
-        <v>2926.987</v>
+        <v>2646.1161</v>
       </c>
       <c r="J9" s="1">
-        <v>76414.45080000001</v>
+        <v>76132.72990000001</v>
       </c>
       <c r="K9" s="1">
-        <v>68871.4016</v>
+        <v>69155.18670000001</v>
       </c>
       <c r="L9" s="1">
-        <v>10.912</v>
+        <v>10.9352</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7926.624</v>
+        <v>-7959.2655</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0328</v>
+        <v>0.0324</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +2642,49 @@
         <v>11.3141</v>
       </c>
       <c r="C10" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D10" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E10" s="1">
-        <v>6992.295</v>
+        <v>7006.3156</v>
       </c>
       <c r="F10" s="1">
-        <v>1123.3446</v>
+        <v>1125.5675</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>79111.5251</v>
+        <v>79111.8125</v>
       </c>
       <c r="I10" s="1">
-        <v>5000.363</v>
+        <v>4686.8506</v>
       </c>
       <c r="J10" s="1">
-        <v>84111.8881</v>
+        <v>83798.66310000001</v>
       </c>
       <c r="K10" s="1">
-        <v>76798.02559999999</v>
+        <v>77114.4522</v>
       </c>
       <c r="L10" s="1">
-        <v>10.9832</v>
+        <v>11.0064</v>
       </c>
       <c r="M10" s="1">
         <v>0.4</v>
       </c>
       <c r="N10" s="1">
-        <v>2272.1445</v>
+        <v>2276.6741</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10437.4887</v>
+        <v>-10483.6598</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0266</v>
+        <v>-0.0271</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>11.003</v>
       </c>
       <c r="C11" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D11" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E11" s="1">
-        <v>8115.6396</v>
+        <v>8131.8831</v>
       </c>
       <c r="F11" s="1">
-        <v>1180.031</v>
+        <v>1182.411</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>89296.38280000001</v>
+        <v>89296.2086</v>
       </c>
       <c r="I11" s="1">
-        <v>4562.8743</v>
+        <v>4203.1908</v>
       </c>
       <c r="J11" s="1">
-        <v>93859.2571</v>
+        <v>93499.39939999999</v>
       </c>
       <c r="K11" s="1">
-        <v>89507.6588</v>
+        <v>89874.7862</v>
       </c>
       <c r="L11" s="1">
-        <v>11.029</v>
+        <v>11.0521</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-12983.8813</v>
+        <v>-13036.1998</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0027</v>
+        <v>-0.0032</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>11.1102</v>
       </c>
       <c r="C12" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D12" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E12" s="1">
-        <v>9295.670599999999</v>
+        <v>9314.2942</v>
       </c>
       <c r="F12" s="1">
-        <v>856.4117</v>
+        <v>858.1143</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>103276.76</v>
+        <v>103276.8936</v>
       </c>
       <c r="I12" s="1">
-        <v>1578.993</v>
+        <v>1166.9909</v>
       </c>
       <c r="J12" s="1">
-        <v>104855.753</v>
+        <v>104443.8845</v>
       </c>
       <c r="K12" s="1">
-        <v>102491.5401</v>
+        <v>102910.986</v>
       </c>
       <c r="L12" s="1">
-        <v>11.0257</v>
+        <v>11.0487</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9514.991099999999</v>
+        <v>-9552.957899999999</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.009599999999999999</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +2801,49 @@
         <v>10.623</v>
       </c>
       <c r="C13" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D13" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E13" s="1">
-        <v>10152.0824</v>
+        <v>10172.4085</v>
       </c>
       <c r="F13" s="1">
-        <v>1135.6492</v>
+        <v>1091.1035</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>107845.5709</v>
+        <v>107844.8232</v>
       </c>
       <c r="I13" s="1">
-        <v>2064.0019</v>
+        <v>1614.033</v>
       </c>
       <c r="J13" s="1">
-        <v>109909.5728</v>
+        <v>109458.8562</v>
       </c>
       <c r="K13" s="1">
-        <v>112006.5311</v>
+        <v>112463.9439</v>
       </c>
       <c r="L13" s="1">
-        <v>11.0329</v>
+        <v>11.0558</v>
       </c>
       <c r="M13" s="1">
         <v>0.1</v>
       </c>
       <c r="N13" s="1">
-        <v>836.6104</v>
+        <v>838.2865</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11227.3916</v>
+        <v>-10775.7465</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0431</v>
+        <v>-0.0436</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>9.977</v>
       </c>
       <c r="C14" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E14" s="1">
-        <v>11287.7316</v>
+        <v>11263.512</v>
       </c>
       <c r="F14" s="1">
-        <v>-11287.7316</v>
+        <v>-11263.512</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>112617.6982</v>
+        <v>112150.789</v>
       </c>
       <c r="I14" s="1">
-        <v>836.6104</v>
+        <v>838.2865</v>
       </c>
       <c r="J14" s="1">
-        <v>113454.3085</v>
+        <v>112989.0754</v>
       </c>
       <c r="K14" s="1">
-        <v>124070.5331</v>
+        <v>124077.9769</v>
       </c>
       <c r="L14" s="1">
-        <v>10.9916</v>
+        <v>11.0159</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112617.6982</v>
+        <v>112150.789</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0538</v>
+        <v>-0.0542</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>10.462</v>
       </c>
       <c r="C2" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D2" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>955.8402</v>
+        <v>953.9254</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>10.5775</v>
       </c>
       <c r="C3" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D3" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E3" s="1">
-        <v>955.8402</v>
+        <v>953.9254</v>
       </c>
       <c r="F3" s="1">
-        <v>944.4198</v>
+        <v>943.5119</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10110.3995</v>
+        <v>10069.9227</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10110.3995</v>
+        <v>10069.9227</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9989.6005</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.011</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,49 +3092,49 @@
         <v>10.7066</v>
       </c>
       <c r="C4" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D4" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E4" s="1">
-        <v>1900.26</v>
+        <v>1897.4373</v>
       </c>
       <c r="F4" s="1">
-        <v>929.8635</v>
+        <v>932.1315</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20345.3236</v>
+        <v>20274.4975</v>
       </c>
       <c r="I4" s="1">
-        <v>10.3995</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20355.7231</v>
+        <v>20274.4975</v>
       </c>
       <c r="K4" s="1">
-        <v>19989.6005</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.5194</v>
+        <v>10.5405</v>
       </c>
       <c r="M4" s="1">
         <v>0.2</v>
       </c>
       <c r="N4" s="1">
-        <v>172.0512</v>
+        <v>171.7066</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9783.6252</v>
+        <v>-9828.2934</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0122</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>11.1511</v>
       </c>
       <c r="C5" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D5" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E5" s="1">
-        <v>2830.1235</v>
+        <v>2829.5688</v>
       </c>
       <c r="F5" s="1">
-        <v>811.1325000000001</v>
+        <v>818.9836</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>31558.9899</v>
+        <v>31489.7058</v>
       </c>
       <c r="I5" s="1">
-        <v>226.7743</v>
+        <v>171.7066</v>
       </c>
       <c r="J5" s="1">
-        <v>31785.7642</v>
+        <v>31661.4124</v>
       </c>
       <c r="K5" s="1">
-        <v>29945.2769</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.5809</v>
+        <v>10.6023</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9045.0201</v>
+        <v>-9150.9128</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0471</v>
+        <v>0.0458</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>11.5294</v>
       </c>
       <c r="C6" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D6" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E6" s="1">
-        <v>3641.256</v>
+        <v>3648.5524</v>
       </c>
       <c r="F6" s="1">
-        <v>783.0896</v>
+        <v>784.6755000000001</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>41981.4972</v>
+        <v>41981.3385</v>
       </c>
       <c r="I6" s="1">
-        <v>1181.7542</v>
+        <v>1020.7938</v>
       </c>
       <c r="J6" s="1">
-        <v>43163.2514</v>
+        <v>43002.1323</v>
       </c>
       <c r="K6" s="1">
-        <v>38990.297</v>
+        <v>39150.9128</v>
       </c>
       <c r="L6" s="1">
-        <v>10.7079</v>
+        <v>10.7305</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9028.631299999999</v>
+        <v>-9064.963599999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.033</v>
+        <v>0.0322</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,49 +3251,49 @@
         <v>10.9136</v>
       </c>
       <c r="C7" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D7" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E7" s="1">
-        <v>4424.3456</v>
+        <v>4433.2279</v>
       </c>
       <c r="F7" s="1">
-        <v>1113.576</v>
+        <v>1093.3044</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>48285.5381</v>
+        <v>48285.8316</v>
       </c>
       <c r="I7" s="1">
-        <v>2153.123</v>
+        <v>1955.8302</v>
       </c>
       <c r="J7" s="1">
-        <v>50438.661</v>
+        <v>50241.6618</v>
       </c>
       <c r="K7" s="1">
-        <v>48018.9283</v>
+        <v>48215.8763</v>
       </c>
       <c r="L7" s="1">
-        <v>10.8533</v>
+        <v>10.876</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1638.5652</v>
+        <v>1641.8486</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10514.5578</v>
+        <v>-10313.9816</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0512</v>
+        <v>-0.0521</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>11.2587</v>
       </c>
       <c r="C8" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D8" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E8" s="1">
-        <v>5537.9216</v>
+        <v>5526.5323</v>
       </c>
       <c r="F8" s="1">
-        <v>869.2118</v>
+        <v>893.3741</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>62349.244</v>
+        <v>62097.2221</v>
       </c>
       <c r="I8" s="1">
-        <v>1638.5652</v>
+        <v>1641.8486</v>
       </c>
       <c r="J8" s="1">
-        <v>63987.8092</v>
+        <v>63739.0707</v>
       </c>
       <c r="K8" s="1">
-        <v>60172.0512</v>
+        <v>60171.7066</v>
       </c>
       <c r="L8" s="1">
-        <v>10.8655</v>
+        <v>10.8878</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9786.195</v>
+        <v>-10078.4212</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0587</v>
+        <v>0.0581</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>11.6434</v>
       </c>
       <c r="C9" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D9" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E9" s="1">
-        <v>6407.1334</v>
+        <v>6419.9064</v>
       </c>
       <c r="F9" s="1">
-        <v>709.0617</v>
+        <v>710.5577</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>74600.817</v>
+        <v>74599.95419999999</v>
       </c>
       <c r="I9" s="1">
-        <v>1852.3702</v>
+        <v>1563.4274</v>
       </c>
       <c r="J9" s="1">
-        <v>76453.1872</v>
+        <v>76163.38159999999</v>
       </c>
       <c r="K9" s="1">
-        <v>69958.2463</v>
+        <v>70250.1277</v>
       </c>
       <c r="L9" s="1">
-        <v>10.9188</v>
+        <v>10.9425</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8255.8886</v>
+        <v>-8289.8634</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0333</v>
+        <v>0.0329</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,49 +3410,49 @@
         <v>11.3141</v>
       </c>
       <c r="C10" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D10" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E10" s="1">
-        <v>7116.1951</v>
+        <v>7130.4641</v>
       </c>
       <c r="F10" s="1">
-        <v>1164.2048</v>
+        <v>1166.5091</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>80513.3426</v>
+        <v>80513.6351</v>
       </c>
       <c r="I10" s="1">
-        <v>3596.4816</v>
+        <v>3273.564</v>
       </c>
       <c r="J10" s="1">
-        <v>84109.8242</v>
+        <v>83787.1991</v>
       </c>
       <c r="K10" s="1">
-        <v>78214.1349</v>
+        <v>78539.9912</v>
       </c>
       <c r="L10" s="1">
-        <v>10.991</v>
+        <v>11.0147</v>
       </c>
       <c r="M10" s="1">
         <v>0.4</v>
       </c>
       <c r="N10" s="1">
-        <v>2306.568</v>
+        <v>2311.1663</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10865.3621</v>
+        <v>-10913.3141</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0271</v>
+        <v>-0.0276</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>11.003</v>
       </c>
       <c r="C11" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D11" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E11" s="1">
-        <v>8280.3999</v>
+        <v>8296.9732</v>
       </c>
       <c r="F11" s="1">
-        <v>1157.0589</v>
+        <v>1121.1009</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>91109.2403</v>
+        <v>91109.0625</v>
       </c>
       <c r="I11" s="1">
-        <v>2731.1195</v>
+        <v>2360.2498</v>
       </c>
       <c r="J11" s="1">
-        <v>93840.35980000001</v>
+        <v>93469.3124</v>
       </c>
       <c r="K11" s="1">
-        <v>91386.0649</v>
+        <v>91764.4716</v>
       </c>
       <c r="L11" s="1">
-        <v>11.0364</v>
+        <v>11.06</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-12731.1195</v>
+        <v>-12360.2498</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0029</v>
+        <v>-0.0034</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>11.1102</v>
       </c>
       <c r="C12" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D12" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E12" s="1">
-        <v>9437.4589</v>
+        <v>9418.0741</v>
       </c>
       <c r="F12" s="1">
-        <v>900.0657</v>
+        <v>898.2708</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>104852.0554</v>
+        <v>104427.6057</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>104852.0554</v>
+        <v>104427.6057</v>
       </c>
       <c r="K12" s="1">
-        <v>104117.1845</v>
+        <v>104124.7215</v>
       </c>
       <c r="L12" s="1">
-        <v>11.0323</v>
+        <v>11.0558</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0097</v>
+        <v>0.009299999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,49 +3569,49 @@
         <v>10.623</v>
       </c>
       <c r="C13" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D13" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E13" s="1">
-        <v>10337.5246</v>
+        <v>10316.3449</v>
       </c>
       <c r="F13" s="1">
-        <v>941.3537</v>
+        <v>939.47</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>109815.5234</v>
+        <v>109370.7941</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>109815.5234</v>
+        <v>109370.7941</v>
       </c>
       <c r="K13" s="1">
-        <v>114117.1845</v>
+        <v>114124.7215</v>
       </c>
       <c r="L13" s="1">
-        <v>11.0391</v>
+        <v>11.0625</v>
       </c>
       <c r="M13" s="1">
         <v>0.1</v>
       </c>
       <c r="N13" s="1">
-        <v>849.3713</v>
+        <v>847.6267</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9150.628699999999</v>
+        <v>-9152.373299999999</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0439</v>
+        <v>-0.0442</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>9.977</v>
       </c>
       <c r="C14" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E14" s="1">
-        <v>11278.8782</v>
+        <v>11255.8149</v>
       </c>
       <c r="F14" s="1">
-        <v>-11278.8782</v>
+        <v>-11255.8149</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>112529.3681</v>
+        <v>112074.1489</v>
       </c>
       <c r="I14" s="1">
-        <v>849.3713</v>
+        <v>847.6267</v>
       </c>
       <c r="J14" s="1">
-        <v>113378.7394</v>
+        <v>112921.7755</v>
       </c>
       <c r="K14" s="1">
-        <v>124117.1845</v>
+        <v>124124.7215</v>
       </c>
       <c r="L14" s="1">
-        <v>11.0044</v>
+        <v>11.0276</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112529.3681</v>
+        <v>112074.1489</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0537</v>
+        <v>-0.054</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>10.462</v>
       </c>
       <c r="C2" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D2" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>955.8402</v>
+        <v>953.9254</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>10.5775</v>
       </c>
       <c r="C3" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D3" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E3" s="1">
-        <v>955.8402</v>
+        <v>953.9254</v>
       </c>
       <c r="F3" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10110.3995</v>
+        <v>10069.9227</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10110.3995</v>
+        <v>10069.9227</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.011</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>10.7066</v>
       </c>
       <c r="C4" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D4" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E4" s="1">
-        <v>1901.2432</v>
+        <v>1897.4373</v>
       </c>
       <c r="F4" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20355.85</v>
+        <v>20274.4975</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20355.85</v>
+        <v>20274.4975</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.5194</v>
+        <v>10.5405</v>
       </c>
       <c r="M4" s="1">
         <v>0.2</v>
       </c>
       <c r="N4" s="1">
-        <v>172.0512</v>
+        <v>171.7066</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9827.9488</v>
+        <v>-9828.2934</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0122</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>11.1511</v>
       </c>
       <c r="C5" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D5" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E5" s="1">
-        <v>2835.2465</v>
+        <v>2829.5688</v>
       </c>
       <c r="F5" s="1">
-        <v>833.3632</v>
+        <v>846.3921</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>31616.1171</v>
+        <v>31489.7058</v>
       </c>
       <c r="I5" s="1">
-        <v>172.0512</v>
+        <v>171.7066</v>
       </c>
       <c r="J5" s="1">
-        <v>31788.1683</v>
+        <v>31661.4124</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.5811</v>
+        <v>10.6023</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9292.9167</v>
+        <v>-9457.161700000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0472</v>
+        <v>0.0458</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>11.5294</v>
       </c>
       <c r="C6" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D6" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E6" s="1">
-        <v>3668.6097</v>
+        <v>3675.9609</v>
       </c>
       <c r="F6" s="1">
-        <v>800.1978</v>
+        <v>801.8182</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>42296.8688</v>
+        <v>42296.709</v>
       </c>
       <c r="I6" s="1">
-        <v>879.1346</v>
+        <v>714.5449</v>
       </c>
       <c r="J6" s="1">
-        <v>43176.0034</v>
+        <v>43011.2539</v>
       </c>
       <c r="K6" s="1">
-        <v>39292.9167</v>
+        <v>39457.1617</v>
       </c>
       <c r="L6" s="1">
-        <v>10.7106</v>
+        <v>10.7338</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9225.880499999999</v>
+        <v>-9263.004300000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0332</v>
+        <v>0.0324</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>10.9136</v>
       </c>
       <c r="C7" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D7" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E7" s="1">
-        <v>4468.8075</v>
+        <v>4477.7791</v>
       </c>
       <c r="F7" s="1">
-        <v>1067.7736</v>
+        <v>1047.1895</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>48770.7776</v>
+        <v>48771.074</v>
       </c>
       <c r="I7" s="1">
-        <v>1653.2541</v>
+        <v>1451.5406</v>
       </c>
       <c r="J7" s="1">
-        <v>50424.0317</v>
+        <v>50222.6147</v>
       </c>
       <c r="K7" s="1">
-        <v>48518.7971</v>
+        <v>48720.1659</v>
       </c>
       <c r="L7" s="1">
-        <v>10.8572</v>
+        <v>10.8804</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1650.8744</v>
+        <v>1654.1824</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10002.3797</v>
+        <v>-9797.358200000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0518</v>
+        <v>-0.0526</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>11.2587</v>
       </c>
       <c r="C8" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D8" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E8" s="1">
-        <v>5536.5811</v>
+        <v>5524.9686</v>
       </c>
       <c r="F8" s="1">
-        <v>967.7748</v>
+        <v>992.3542</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>62334.1522</v>
+        <v>62079.6516</v>
       </c>
       <c r="I8" s="1">
-        <v>1650.8744</v>
+        <v>1654.1824</v>
       </c>
       <c r="J8" s="1">
-        <v>63985.0266</v>
+        <v>63733.8341</v>
       </c>
       <c r="K8" s="1">
-        <v>60172.0512</v>
+        <v>60171.7066</v>
       </c>
       <c r="L8" s="1">
-        <v>10.8681</v>
+        <v>10.8909</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10895.8865</v>
+        <v>-11195.0455</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0589</v>
+        <v>0.0583</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>11.6434</v>
       </c>
       <c r="C9" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D9" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E9" s="1">
-        <v>6504.356</v>
+        <v>6517.3228</v>
       </c>
       <c r="F9" s="1">
-        <v>738.2356</v>
+        <v>739.7913</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>75732.8181</v>
+        <v>75731.9421</v>
       </c>
       <c r="I9" s="1">
-        <v>754.9878</v>
+        <v>459.1369</v>
       </c>
       <c r="J9" s="1">
-        <v>76487.806</v>
+        <v>76191.0791</v>
       </c>
       <c r="K9" s="1">
-        <v>71067.9378</v>
+        <v>71366.75199999999</v>
       </c>
       <c r="L9" s="1">
-        <v>10.9262</v>
+        <v>10.9503</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8595.573</v>
+        <v>-8630.923199999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0338</v>
+        <v>0.0333</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +4178,49 @@
         <v>11.3141</v>
       </c>
       <c r="C10" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D10" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E10" s="1">
-        <v>7242.5916</v>
+        <v>7257.1141</v>
       </c>
       <c r="F10" s="1">
-        <v>1074.7134</v>
+        <v>1043.3468</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>81943.4056</v>
+        <v>81943.7034</v>
       </c>
       <c r="I10" s="1">
-        <v>2159.4149</v>
+        <v>1828.2137</v>
       </c>
       <c r="J10" s="1">
-        <v>84102.8205</v>
+        <v>83771.91710000001</v>
       </c>
       <c r="K10" s="1">
-        <v>79663.5107</v>
+        <v>79997.6752</v>
       </c>
       <c r="L10" s="1">
-        <v>10.9993</v>
+        <v>11.0233</v>
       </c>
       <c r="M10" s="1">
         <v>0.4</v>
       </c>
       <c r="N10" s="1">
-        <v>2341.5681</v>
+        <v>2346.2362</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9817.8467</v>
+        <v>-9481.9776</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0276</v>
+        <v>-0.0281</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>11.003</v>
       </c>
       <c r="C11" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D11" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E11" s="1">
-        <v>8317.305</v>
+        <v>8300.460800000001</v>
       </c>
       <c r="F11" s="1">
-        <v>1121.6548</v>
+        <v>1119.8299</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>91515.3069</v>
+        <v>91147.36040000001</v>
       </c>
       <c r="I11" s="1">
-        <v>2341.5681</v>
+        <v>2346.2362</v>
       </c>
       <c r="J11" s="1">
-        <v>93856.8751</v>
+        <v>93493.5966</v>
       </c>
       <c r="K11" s="1">
-        <v>91822.9256</v>
+        <v>91825.889</v>
       </c>
       <c r="L11" s="1">
-        <v>11.04</v>
+        <v>11.0627</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-12341.5681</v>
+        <v>-12346.2362</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0026</v>
+        <v>-0.003</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>11.1102</v>
       </c>
       <c r="C12" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D12" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E12" s="1">
-        <v>9438.959800000001</v>
+        <v>9420.2907</v>
       </c>
       <c r="F12" s="1">
-        <v>900.0657</v>
+        <v>898.2708</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>104868.7316</v>
+        <v>104452.1832</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>104868.7316</v>
+        <v>104452.1832</v>
       </c>
       <c r="K12" s="1">
-        <v>104164.4937</v>
+        <v>104172.1252</v>
       </c>
       <c r="L12" s="1">
-        <v>11.0356</v>
+        <v>11.0583</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0097</v>
+        <v>0.009299999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>10.623</v>
       </c>
       <c r="C13" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D13" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E13" s="1">
-        <v>10339.0255</v>
+        <v>10318.5615</v>
       </c>
       <c r="F13" s="1">
-        <v>941.3537</v>
+        <v>939.47</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>109831.4683</v>
+        <v>109394.2937</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>109831.4683</v>
+        <v>109394.2937</v>
       </c>
       <c r="K13" s="1">
-        <v>114164.4937</v>
+        <v>114172.1252</v>
       </c>
       <c r="L13" s="1">
-        <v>11.0421</v>
+        <v>11.0647</v>
       </c>
       <c r="M13" s="1">
         <v>0.1</v>
       </c>
       <c r="N13" s="1">
-        <v>849.5064</v>
+        <v>847.8262</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9150.4936</v>
+        <v>-9152.1738</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0439</v>
+        <v>-0.0442</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>9.977</v>
       </c>
       <c r="C14" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E14" s="1">
-        <v>11280.3792</v>
+        <v>11258.0315</v>
       </c>
       <c r="F14" s="1">
-        <v>-11280.3792</v>
+        <v>-11258.0315</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>112544.3434</v>
+        <v>112096.2194</v>
       </c>
       <c r="I14" s="1">
-        <v>849.5064</v>
+        <v>847.8262</v>
       </c>
       <c r="J14" s="1">
-        <v>113393.8498</v>
+        <v>112944.0456</v>
       </c>
       <c r="K14" s="1">
-        <v>124164.4937</v>
+        <v>124172.1252</v>
       </c>
       <c r="L14" s="1">
-        <v>11.0071</v>
+        <v>11.0296</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112544.3434</v>
+        <v>112096.2194</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0537</v>
+        <v>-0.054</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>11.0125</v>
+        <v>11.0345</v>
       </c>
       <c r="D3" s="1">
-        <v>10.9781</v>
+        <v>11.0016</v>
       </c>
       <c r="E3" s="1">
-        <v>10.9916</v>
+        <v>11.0159</v>
       </c>
       <c r="F3" s="1">
-        <v>11.0044</v>
+        <v>11.0276</v>
       </c>
       <c r="G3" s="1">
-        <v>11.0071</v>
+        <v>11.0296</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.0396</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0256</v>
+        <v>0.0132</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0272</v>
+        <v>0.0152</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0268</v>
+        <v>0.0147</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0263</v>
+        <v>0.0141</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0266</v>
+        <v>0.0144</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1237</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1294</v>
+        <v>0.1285</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1259</v>
+        <v>0.1253</v>
       </c>
       <c r="E5" s="3">
-        <v>0.127</v>
+        <v>0.1263</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1279</v>
+        <v>0.1271</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1285</v>
+        <v>0.1277</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-0.4846</v>
       </c>
       <c r="C6" s="4">
-        <v>0.0405</v>
+        <v>-0.0554</v>
       </c>
       <c r="D6" s="4">
-        <v>0.0545</v>
+        <v>-0.0405</v>
       </c>
       <c r="E6" s="4">
-        <v>0.0509</v>
+        <v>-0.0448</v>
       </c>
       <c r="F6" s="4">
-        <v>0.0468</v>
+        <v>-0.0489</v>
       </c>
       <c r="G6" s="4">
-        <v>0.0491</v>
+        <v>-0.0461</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.1026</v>
+        <v>-0.1096</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.1023</v>
+        <v>-0.1091</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.1021</v>
+        <v>-0.1089</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.1021</v>
+        <v>-0.1088</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.1013</v>
+        <v>-0.108</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>5000.3211</v>
+        <v>4990.2534</v>
       </c>
       <c r="D8" s="1">
-        <v>4842.4895</v>
+        <v>4851.4802</v>
       </c>
       <c r="E8" s="1">
-        <v>4907.1434</v>
+        <v>4916.2634</v>
       </c>
       <c r="F8" s="1">
-        <v>4966.5558</v>
+        <v>4972.3481</v>
       </c>
       <c r="G8" s="1">
-        <v>5014.0001</v>
+        <v>5019.9513</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P100_KFSDIV.xlsx
+++ b/output/1Y_P100_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>5904.2003</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9097</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.9145</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9114</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9104</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
